--- a/data/python/Files/summary.xlsx
+++ b/data/python/Files/summary.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1221" sheetId="6" r:id="rId6"/>
     <sheet name="all together" sheetId="7" r:id="rId7"/>
     <sheet name="sorted" sheetId="8" r:id="rId8"/>
-    <sheet name="ring chart" sheetId="9" r:id="rId9"/>
+    <sheet name="charts" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1323,7 +1323,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$I$12</c:f>
+              <c:f>charts!$I$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1451,7 +1451,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1481,7 +1481,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$I$13:$I$19</c:f>
+              <c:f>charts!$I$13:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1515,7 +1515,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$J$12</c:f>
+              <c:f>charts!$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1643,7 +1643,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1673,7 +1673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$J$13:$J$19</c:f>
+              <c:f>charts!$J$13:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1707,7 +1707,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$K$12</c:f>
+              <c:f>charts!$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1835,7 +1835,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1865,7 +1865,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$K$13:$K$19</c:f>
+              <c:f>charts!$K$13:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1899,7 +1899,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$L$12</c:f>
+              <c:f>charts!$L$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2027,7 +2027,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2057,7 +2057,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$L$13:$L$19</c:f>
+              <c:f>charts!$L$13:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2091,7 +2091,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$M$12</c:f>
+              <c:f>charts!$M$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2219,7 +2219,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2249,7 +2249,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$M$13:$M$19</c:f>
+              <c:f>charts!$M$13:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2283,7 +2283,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$N$12</c:f>
+              <c:f>charts!$N$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2411,7 +2411,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2441,7 +2441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$N$13:$N$19</c:f>
+              <c:f>charts!$N$13:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2594,7 +2594,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$I$12</c:f>
+              <c:f>charts!$I$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2615,7 +2615,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2645,7 +2645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$I$13:$I$19</c:f>
+              <c:f>charts!$I$13:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2679,7 +2679,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$J$12</c:f>
+              <c:f>charts!$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2700,7 +2700,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2730,7 +2730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$J$13:$J$19</c:f>
+              <c:f>charts!$J$13:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2764,7 +2764,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$K$12</c:f>
+              <c:f>charts!$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2785,7 +2785,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2815,7 +2815,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$K$13:$K$19</c:f>
+              <c:f>charts!$K$13:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2849,7 +2849,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$L$12</c:f>
+              <c:f>charts!$L$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2870,7 +2870,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2900,7 +2900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$L$13:$L$19</c:f>
+              <c:f>charts!$L$13:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2934,7 +2934,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$M$12</c:f>
+              <c:f>charts!$M$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2955,7 +2955,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2985,7 +2985,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$M$13:$M$19</c:f>
+              <c:f>charts!$M$13:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3019,7 +3019,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ring chart'!$N$12</c:f>
+              <c:f>charts!$N$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3040,7 +3040,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ring chart'!$H$13:$H$19</c:f>
+              <c:f>charts!$H$13:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3070,7 +3070,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ring chart'!$N$13:$N$19</c:f>
+              <c:f>charts!$N$13:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3296,6 +3296,772 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>charts!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>charts!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$I$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31645569620253167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18012422360248448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21296296296296297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18390804597701149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11347517730496454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>charts!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>charts!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$I$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46835443037974683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34161490683229812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31481481481481483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19047619047619047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36170212765957449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>charts!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>charts!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$I$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.11392405063291139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33540372670807456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28703703703703703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21839080459770116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52380952380952384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14893617021276595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>charts!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>charts!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$I$16:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3291139240506333E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10559006211180125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1388888888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12643678160919541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16190476190476191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15602836879432624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>charts!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>charts!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$I$17:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5316455696202531E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7267080745341616E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6296296296296294E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14942528735632185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6190476190476197E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10638297872340426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>charts!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>charts!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$I$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2658227848101266E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1494252873563218E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8014184397163122E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>charts!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>charts!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$I$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5460992907801421E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="507907800"/>
+        <c:axId val="507908976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="507907800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507908976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507908976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507907800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3383,6 +4149,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5476,6 +6282,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5603,6 +6914,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22474,7 +23815,7 @@
   <dimension ref="A1:N315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:N19"/>
+      <selection activeCell="H36" sqref="H36:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/python/Files/summary.xlsx
+++ b/data/python/Files/summary.xlsx
@@ -112,6 +112,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -624,11 +625,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="507874032"/>
-        <c:axId val="507874424"/>
+        <c:axId val="506548648"/>
+        <c:axId val="506549040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="507874032"/>
+        <c:axId val="506548648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,12 +685,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507874424"/>
+        <c:crossAx val="506549040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507874424"/>
+        <c:axId val="506549040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507874032"/>
+        <c:crossAx val="506548648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -810,6 +811,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1128,11 +1130,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="507875208"/>
-        <c:axId val="507875600"/>
+        <c:axId val="506549824"/>
+        <c:axId val="506550216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="507875208"/>
+        <c:axId val="506549824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,12 +1190,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507875600"/>
+        <c:crossAx val="506550216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507875600"/>
+        <c:axId val="506550216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507875208"/>
+        <c:crossAx val="506549824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3109,11 +3111,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="506794888"/>
-        <c:axId val="506795672"/>
+        <c:axId val="506551392"/>
+        <c:axId val="506551784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="506794888"/>
+        <c:axId val="506551392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3156,7 +3158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506795672"/>
+        <c:crossAx val="506551784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3164,7 +3166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="506795672"/>
+        <c:axId val="506551784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3215,7 +3217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506794888"/>
+        <c:crossAx val="506551392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3875,11 +3877,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="507907800"/>
-        <c:axId val="507908976"/>
+        <c:axId val="506552568"/>
+        <c:axId val="506552960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="507907800"/>
+        <c:axId val="506552568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3922,7 +3924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507908976"/>
+        <c:crossAx val="506552960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3930,9 +3932,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="507908976"/>
+        <c:axId val="506552960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3981,7 +3984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507907800"/>
+        <c:crossAx val="506552568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7241,8 +7244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C115" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12463,7 +12466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C307" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -23815,7 +23818,7 @@
   <dimension ref="A1:N315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36:H37"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
